--- a/data/Diccionario_de_Datos_Retail.xlsx
+++ b/data/Diccionario_de_Datos_Retail.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Luis\ITESM\Bootcamp\wizeline_2024_equipo_5\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migavila\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A9730-563D-4CD1-AC47-07F58ECBED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="21429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="onlineRetail" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Columna</t>
   </si>
@@ -106,13 +105,106 @@
   </si>
   <si>
     <t>Cantidad de dinero gasto en una transacción.</t>
+  </si>
+  <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Extracto de la fecha  correspondiente al año</t>
+  </si>
+  <si>
+    <t>Extracto de la fecha  correspondiente al mes</t>
+  </si>
+  <si>
+    <t>Extracto de la fecha  correspondiente al dia del mes</t>
+  </si>
+  <si>
+    <t>Extracto de la fecha  correspondiente a la hora del dia</t>
+  </si>
+  <si>
+    <t>Extracto de la fecha  correspondiente al dia de la semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Origen</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/vijayuv/onlineretail</t>
+  </si>
+  <si>
+    <t>onlineRetail.InvoiceDate</t>
+  </si>
+  <si>
+    <t>Valores aceptados</t>
+  </si>
+  <si>
+    <t>codigo alfanumerico</t>
+  </si>
+  <si>
+    <t>texto libre</t>
+  </si>
+  <si>
+    <t>Fecha formato MM/DD/YYYY HH:MM:SS AM/PM</t>
+  </si>
+  <si>
+    <t>flotante &gt;= 0</t>
+  </si>
+  <si>
+    <t>codigo numerico</t>
+  </si>
+  <si>
+    <t>Division geografica de pais</t>
+  </si>
+  <si>
+    <t>flotante  -f : f</t>
+  </si>
+  <si>
+    <t>numerico de 4 digitos</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Longitud de Columna</t>
+  </si>
+  <si>
+    <t>Datetime 8 bytes</t>
+  </si>
+  <si>
+    <t>float 32 bits</t>
+  </si>
+  <si>
+    <t>entero 32 bits</t>
+  </si>
+  <si>
+    <t>entero corto</t>
+  </si>
+  <si>
+    <t>Acepta Nulos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +216,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,10 +261,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,8 +282,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,21 +568,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.4609375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,8 +596,23 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -495,8 +622,23 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -506,8 +648,23 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -517,8 +674,23 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -528,8 +700,24 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>"-n : n"</f>
+        <v>-n : n</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -539,8 +727,23 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -550,8 +753,23 @@
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -561,8 +779,23 @@
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -572,8 +805,23 @@
       <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5">
+        <v>250</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -583,9 +831,170 @@
       <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>"1 - 12"</f>
+        <v>1 - 12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f>"1 - 31"</f>
+        <v>1 - 31</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f>"0 - 23"</f>
+        <v>0 - 23</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f>"1 - 7"</f>
+        <v>1 - 7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
